--- a/SALOME KATEI.xlsx
+++ b/SALOME KATEI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="285" windowWidth="18195" windowHeight="10830" firstSheet="17" activeTab="23"/>
+    <workbookView xWindow="480" yWindow="285" windowWidth="18195" windowHeight="10830" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY 20" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,8 @@
   <externalReferences>
     <externalReference r:id="rId25"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -22495,8 +22496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R23" sqref="R22:R23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22562,7 +22563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>23</v>
       </c>
@@ -22642,7 +22643,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>27</v>
       </c>
@@ -22667,7 +22668,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>28</v>
       </c>
@@ -22692,7 +22693,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>29</v>
       </c>
@@ -22932,7 +22933,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>1</v>
       </c>
@@ -22951,10 +22952,12 @@
         <f>C18+D18+E18</f>
         <v>2000</v>
       </c>
-      <c r="G18" s="64"/>
+      <c r="G18" s="64">
+        <v>2000</v>
+      </c>
       <c r="H18" s="43">
         <f>F18-G18</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="66"/>
       <c r="L18" s="60">
@@ -22981,10 +22984,13 @@
         <f>E19+D19+C19</f>
         <v>2000</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <f>200+1300+500</f>
+        <v>2000</v>
+      </c>
       <c r="H19" s="43">
         <f>F19-G19</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="66" t="s">
         <v>323</v>
@@ -23012,10 +23018,12 @@
         <f t="shared" ref="F20:F32" si="3">E20+D20+C20</f>
         <v>2000</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="14">
+        <v>2000</v>
+      </c>
       <c r="H20" s="43">
         <f>F20-G20</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>249</v>
@@ -23053,7 +23061,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>5</v>
       </c>
@@ -23133,7 +23141,7 @@
       </c>
       <c r="L24" s="60"/>
     </row>
-    <row r="25" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>8</v>
       </c>
@@ -23159,7 +23167,7 @@
       </c>
       <c r="L25" s="60"/>
     </row>
-    <row r="26" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>9</v>
       </c>
@@ -23178,10 +23186,12 @@
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>1500</v>
+      </c>
       <c r="H26" s="43">
         <f>F26-G26</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="L26" s="60">
         <f>L24-L25</f>
@@ -23207,13 +23217,15 @@
         <f>E27+D27+C27</f>
         <v>1500</v>
       </c>
-      <c r="G27" s="42"/>
+      <c r="G27" s="42">
+        <v>1500</v>
+      </c>
       <c r="H27" s="43">
         <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>11</v>
       </c>
@@ -23257,10 +23269,12 @@
         <f t="shared" si="3"/>
         <v>1550</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42">
+        <v>1500</v>
+      </c>
       <c r="H29" s="43">
         <f>F29-G29</f>
-        <v>1550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -23307,10 +23321,12 @@
         <f>E31+D31+C31</f>
         <v>1500</v>
       </c>
-      <c r="G31" s="42"/>
+      <c r="G31" s="42">
+        <v>1500</v>
+      </c>
       <c r="H31" s="43">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -23332,10 +23348,13 @@
         <f t="shared" si="3"/>
         <v>1350</v>
       </c>
-      <c r="G32" s="42"/>
+      <c r="G32" s="42">
+        <f>200+1000+100</f>
+        <v>1300</v>
+      </c>
       <c r="H32" s="43">
         <f>F32-G32</f>
-        <v>1350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23387,11 +23406,11 @@
       </c>
       <c r="G34" s="10">
         <f>SUM(G18:G33)</f>
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="H34" s="43">
         <f>SUM(H18:H33)</f>
-        <v>36000</v>
+        <v>22700</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -23454,7 +23473,7 @@
       </c>
       <c r="F37" s="8">
         <f>G34+G16</f>
-        <v>1500</v>
+        <v>14800</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="8"/>
@@ -23549,7 +23568,7 @@
       </c>
       <c r="F42" s="25">
         <f>F37+F41+F39</f>
-        <v>-24892.900000000009</v>
+        <v>-11592.900000000009</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="8"/>
@@ -23711,7 +23730,7 @@
       </c>
       <c r="F55" s="34">
         <f>F37+F39+F41-G38</f>
-        <v>-28642.900000000009</v>
+        <v>-15342.900000000009</v>
       </c>
       <c r="G55" s="7">
         <f>SUM(G44:G54)</f>
@@ -23719,7 +23738,7 @@
       </c>
       <c r="H55" s="7">
         <f>F55-G55</f>
-        <v>-31693.900000000009</v>
+        <v>-18393.900000000009</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
